--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Example 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Example2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t xml:space="preserve">Meal:</t>
   </si>
@@ -55,15 +56,21 @@
     <t xml:space="preserve">Ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjusted</t>
+    <t xml:space="preserve">Quantity/pers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted/pers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bread</t>
   </si>
   <si>
@@ -76,22 +83,60 @@
     <t xml:space="preserve">Tomato</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
+    <t xml:space="preserve">Must be ripe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday – brunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strawberry Smiggles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smiggles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strawberries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainbows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store-bought is fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butcher’s knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure it’s dull</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,25 +169,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -190,48 +217,60 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,66 +283,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666666"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -312,168 +291,249 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="6" t="str">
         <f aca="false">$B$6</f>
         <v>g</v>
       </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <f aca="false">SUMIF(D11:D999,B6,B11:B999)</f>
+      <c r="B9" s="7" t="n">
+        <f aca="false">SUMIF(E11:E999,B6,B11:B999)</f>
         <v>550</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="7" t="str">
         <f aca="false">$B$6</f>
         <v>g</v>
       </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <f aca="false">B7/B9</f>
         <v>1.45454545454545</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9" t="n">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="11" t="n">
         <f aca="false">$B$10*B13</f>
         <v>581.818181818182</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="n">
+        <f aca="false">C13*$B$5</f>
+        <v>69818.1818181818</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="F13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9" t="n">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="11" t="n">
         <f aca="false">$B$10*B14</f>
         <v>72.7272727272727</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="n">
+        <f aca="false">C14*$B$5</f>
+        <v>8727.27272727273</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10" t="n">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <f aca="false">$B$10*B15</f>
         <v>72.7272727272727</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="n">
+        <f aca="false">C15*$B$5</f>
+        <v>8727.27272727273</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="10" t="n">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="C17" s="10" t="n">
-        <f aca="false">$B$10*B17</f>
+      <c r="C16" s="11" t="n">
+        <f aca="false">$B$10*B16</f>
         <v>72.7272727272727</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D16" s="11" t="n">
+        <f aca="false">C16*$B$5</f>
+        <v>8727.27272727273</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>18</v>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true" insertColumns="false" insertRows="false"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -482,4 +542,280 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f aca="false">$B$6</f>
+        <v>g</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <f aca="false">SUMIF(E11:E999,B6,B11:B999)</f>
+        <v>450</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f aca="false">$B$6</f>
+        <v>g</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <f aca="false">B7/B9</f>
+        <v>1.33333333333333</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>400</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <f aca="false">$B$10*B15</f>
+        <v>533.333333333333</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <f aca="false">C15*$B$5</f>
+        <v>53333.3333333333</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <f aca="false">$B$10*B16</f>
+        <v>2.66666666666667</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <f aca="false">C16*$B$5</f>
+        <v>266.666666666667</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <f aca="false">$B$10*B17</f>
+        <v>66.6666666666667</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <f aca="false">C17*$B$5</f>
+        <v>6666.66666666667</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true" insertColumns="false" insertRows="false"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>